--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="136">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,388 +49,373 @@
     <t>useless</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>stopped</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
     <t>beautifully</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>awesome</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>fantastic</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>son</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>enjoy</t>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>everyday</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>mas</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>everyday</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>handy</t>
   </si>
   <si>
     <t>rice</t>
   </si>
   <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>perfectly</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
+    <t>comfortable</t>
+  </si>
+  <si>
     <t>ze</t>
   </si>
   <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>cooks</t>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>dough</t>
   </si>
   <si>
     <t>cream</t>
   </si>
   <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>dough</t>
-  </si>
-  <si>
-    <t>popcorn</t>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>comfortable</t>
+    <t>always</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>cook</t>
   </si>
   <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>day</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>simple</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>exactly</t>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>dish</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
     <t>making</t>
   </si>
   <si>
     <t>w</t>
   </si>
   <si>
-    <t>maker</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>wish</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
     <t>ice</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>brand</t>
+    <t>sure</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
+    <t>far</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>makes</t>
+    <t>also</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>cup</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>hot</t>
   </si>
   <si>
-    <t>last</t>
+    <t>really</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>job</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>better</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
     <t>much</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>product</t>
@@ -794,7 +779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q123"/>
+  <dimension ref="A1:Q119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -802,10 +787,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -863,13 +848,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -881,31 +866,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="L3">
+        <v>90</v>
+      </c>
+      <c r="M3">
+        <v>90</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>29</v>
-      </c>
-      <c r="M3">
-        <v>29</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -934,16 +919,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.956989247311828</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L4">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="M4">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -955,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -963,13 +948,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -981,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>0.9473684210526315</v>
@@ -1013,13 +998,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4141414141414141</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1031,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8840579710144928</v>
+        <v>0.8984375</v>
       </c>
       <c r="L6">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="M6">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1055,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1063,13 +1048,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3953488372093023</v>
+        <v>0.34</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1081,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8828125</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L7">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="M7">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1105,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1113,13 +1098,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3773584905660378</v>
+        <v>0.3396226415094339</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1131,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8730650154798761</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L8">
-        <v>564</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>564</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1155,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1163,13 +1148,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.32</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1181,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8695652173913043</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>561</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>561</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1205,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1213,38 +1198,38 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2692307692307692</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>58</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="L10">
         <v>21</v>
       </c>
-      <c r="D10">
+      <c r="M10">
         <v>21</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>57</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L10">
-        <v>36</v>
-      </c>
-      <c r="M10">
-        <v>36</v>
-      </c>
       <c r="N10">
         <v>1</v>
       </c>
@@ -1255,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1263,13 +1248,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1513513513513514</v>
+        <v>0.1405405405405405</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1281,60 +1266,36 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.7954545454545454</v>
+      </c>
+      <c r="L11">
+        <v>35</v>
+      </c>
+      <c r="M11">
+        <v>35</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K11">
-        <v>0.8076923076923077</v>
-      </c>
-      <c r="L11">
-        <v>21</v>
-      </c>
-      <c r="M11">
-        <v>21</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1440677966101695</v>
-      </c>
-      <c r="C12">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>101</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="K12">
         <v>0.75</v>
@@ -1360,16 +1321,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7316017316017316</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L13">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M13">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1381,21 +1342,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7111111111111111</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1407,21 +1368,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.6915254237288135</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L15">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="M15">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1433,21 +1394,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.6493506493506493</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1459,21 +1420,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.6438356164383562</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L17">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1485,21 +1446,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6428571428571429</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>801</v>
+        <v>18</v>
       </c>
       <c r="M18">
-        <v>801</v>
+        <v>18</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1511,21 +1472,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>445</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6323529411764706</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1537,21 +1498,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6307692307692307</v>
+        <v>0.6581059390048154</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>820</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>820</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1563,47 +1524,47 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6296296296296297</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L21">
+        <v>31</v>
+      </c>
+      <c r="M21">
+        <v>31</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>17</v>
-      </c>
-      <c r="M21">
-        <v>17</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>10</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6197183098591549</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L22">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1615,21 +1576,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.6142857142857143</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M23">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1641,21 +1602,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.59375</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1672,16 +1633,16 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5897435897435898</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1693,21 +1654,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5897435897435898</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1719,21 +1680,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5789473684210527</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1745,21 +1706,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.5769230769230769</v>
+        <v>0.5657894736842105</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1771,21 +1732,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.5714285714285714</v>
+        <v>0.5657142857142857</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1797,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.5555555555555556</v>
+        <v>0.5625</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1828,16 +1789,16 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.5538461538461539</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1849,21 +1810,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.5517241379310345</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1875,21 +1836,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.5510204081632653</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1901,21 +1862,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.5485714285714286</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L34">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1927,15 +1888,15 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.5416666666666666</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="L35">
         <v>26</v>
@@ -1953,21 +1914,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.5384615384615384</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="L36">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="M36">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1979,21 +1940,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.5294117647058824</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2005,21 +1966,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.5277777777777778</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L38">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="M38">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2031,21 +1992,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.5269461077844312</v>
+        <v>0.5029940119760479</v>
       </c>
       <c r="L39">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M39">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2057,21 +2018,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.5192307692307693</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L40">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M40">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2083,21 +2044,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.5180722891566265</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L41">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2109,21 +2070,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>0.5151515151515151</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2135,21 +2096,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>0.5131578947368421</v>
+        <v>0.475</v>
       </c>
       <c r="L43">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2161,21 +2122,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K44">
-        <v>0.47</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L44">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="M44">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2187,21 +2148,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K45">
-        <v>0.4691358024691358</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L45">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2213,21 +2174,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K46">
-        <v>0.4516129032258064</v>
+        <v>0.46</v>
       </c>
       <c r="L46">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M46">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2239,21 +2200,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K47">
-        <v>0.4473684210526316</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="L47">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M47">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2265,21 +2226,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K48">
         <v>0.4444444444444444</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2291,21 +2252,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K49">
-        <v>0.4390243902439024</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L49">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="M49">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2317,21 +2278,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K50">
-        <v>0.4358974358974359</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="L50">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="M50">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2343,21 +2304,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K51">
-        <v>0.4337349397590362</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L51">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="M51">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2369,21 +2330,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K52">
-        <v>0.4285714285714285</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="L52">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M52">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2395,21 +2356,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K53">
-        <v>0.4264705882352941</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="L53">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M53">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2421,21 +2382,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K54">
-        <v>0.425</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M54">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2447,21 +2408,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K55">
-        <v>0.4060150375939849</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="L55">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="M55">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2473,21 +2434,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K56">
-        <v>0.4042553191489361</v>
+        <v>0.4</v>
       </c>
       <c r="L56">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M56">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2499,21 +2460,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K57">
-        <v>0.3947368421052632</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L57">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M57">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2525,21 +2486,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K58">
-        <v>0.3636363636363636</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L58">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M58">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2551,21 +2512,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K59">
-        <v>0.3603603603603603</v>
+        <v>0.375</v>
       </c>
       <c r="L59">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M59">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2577,21 +2538,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K60">
-        <v>0.3579766536964981</v>
+        <v>0.3651960784313725</v>
       </c>
       <c r="L60">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="M60">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2603,21 +2564,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>165</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K61">
-        <v>0.3571428571428572</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="L61">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M61">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2629,21 +2590,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K62">
-        <v>0.3553921568627451</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="L62">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="M62">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2655,21 +2616,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>263</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K63">
-        <v>0.3492063492063492</v>
+        <v>0.3501945525291829</v>
       </c>
       <c r="L63">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="M63">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2681,21 +2642,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>41</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K64">
-        <v>0.3442622950819672</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="L64">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M64">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2707,21 +2668,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K65">
-        <v>0.3333333333333333</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="L65">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M65">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2733,21 +2694,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K66">
-        <v>0.3333333333333333</v>
+        <v>0.3054794520547945</v>
       </c>
       <c r="L66">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="M66">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2759,21 +2720,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>40</v>
+        <v>507</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K67">
-        <v>0.3260869565217391</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L67">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M67">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2785,21 +2746,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K68">
-        <v>0.3157894736842105</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L68">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M68">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2811,21 +2772,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K69">
-        <v>0.3110047846889952</v>
+        <v>0.2870813397129187</v>
       </c>
       <c r="L69">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M69">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2837,21 +2798,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K70">
-        <v>0.3054794520547945</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L70">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="M70">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2863,21 +2824,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>507</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K71">
-        <v>0.2949640287769784</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L71">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M71">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2889,21 +2850,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K72">
-        <v>0.2738095238095238</v>
+        <v>0.2772277227722773</v>
       </c>
       <c r="L72">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M72">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2915,21 +2876,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K73">
-        <v>0.2649006622516556</v>
+        <v>0.2589928057553957</v>
       </c>
       <c r="L73">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M73">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2941,21 +2902,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K74">
-        <v>0.2574257425742574</v>
+        <v>0.2516556291390729</v>
       </c>
       <c r="L74">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M74">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2967,21 +2928,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>75</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75">
-        <v>0.2522522522522522</v>
+        <v>0.2454251883745963</v>
       </c>
       <c r="L75">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="M75">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2993,21 +2954,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>83</v>
+        <v>701</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K76">
-        <v>0.2435344827586207</v>
+        <v>0.2416107382550336</v>
       </c>
       <c r="L76">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c r="M76">
-        <v>227</v>
+        <v>36</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3016,50 +2977,50 @@
         <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>702</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K77">
-        <v>0.2361111111111111</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L77">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M77">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K78">
-        <v>0.2222222222222222</v>
+        <v>0.2073170731707317</v>
       </c>
       <c r="L78">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M78">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3071,21 +3032,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>56</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K79">
-        <v>0.2185430463576159</v>
+        <v>0.2052980132450331</v>
       </c>
       <c r="L79">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="M79">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3097,21 +3058,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>590</v>
+        <v>600</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K80">
-        <v>0.2168674698795181</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="L80">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M80">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3123,21 +3084,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K81">
-        <v>0.2147651006711409</v>
+        <v>0.2</v>
       </c>
       <c r="L81">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M81">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3149,30 +3110,30 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K82">
-        <v>0.2142857142857143</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="L82">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M82">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N82">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
         <v>88</v>
@@ -3180,16 +3141,16 @@
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K83">
-        <v>0.2006269592476489</v>
+        <v>0.1912225705329154</v>
       </c>
       <c r="L83">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M83">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3201,21 +3162,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K84">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="L84">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M84">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3227,21 +3188,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K85">
-        <v>0.1948051948051948</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="L85">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M85">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3253,21 +3214,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K86">
-        <v>0.19</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="L86">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M86">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3279,21 +3240,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K87">
-        <v>0.1882352941176471</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="L87">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M87">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3305,21 +3266,21 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>69</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K88">
-        <v>0.1882352941176471</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L88">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="M88">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3331,21 +3292,21 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>69</v>
+        <v>644</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K89">
-        <v>0.1841432225063939</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="L89">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="M89">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3357,21 +3318,21 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>638</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K90">
-        <v>0.1794871794871795</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L90">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M90">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3383,47 +3344,47 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K91">
-        <v>0.1739130434782609</v>
+        <v>0.1513513513513514</v>
       </c>
       <c r="L91">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="M91">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
-        <v>76</v>
+        <v>314</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K92">
-        <v>0.1707317073170732</v>
+        <v>0.1472868217054264</v>
       </c>
       <c r="L92">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M92">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3435,21 +3396,21 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K93">
-        <v>0.1616161616161616</v>
+        <v>0.1439114391143911</v>
       </c>
       <c r="L93">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M93">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3461,47 +3422,47 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>83</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K94">
-        <v>0.1567567567567568</v>
+        <v>0.1411042944785276</v>
       </c>
       <c r="L94">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="M94">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="N94">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>312</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K95">
-        <v>0.1469298245614035</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="L95">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M95">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3513,21 +3474,21 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K96">
-        <v>0.1468926553672316</v>
+        <v>0.139344262295082</v>
       </c>
       <c r="L96">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M96">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3539,21 +3500,21 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>151</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K97">
-        <v>0.1467889908256881</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="L97">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M97">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3565,47 +3526,47 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>93</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K98">
-        <v>0.1384615384615385</v>
+        <v>0.1287128712871287</v>
       </c>
       <c r="L98">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M98">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
-        <v>112</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K99">
-        <v>0.1365313653136531</v>
+        <v>0.1202749140893471</v>
       </c>
       <c r="L99">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M99">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3617,21 +3578,21 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>234</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K100">
-        <v>0.1295454545454545</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="L100">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="M100">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3643,21 +3604,21 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>383</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K101">
-        <v>0.1282051282051282</v>
+        <v>0.1181818181818182</v>
       </c>
       <c r="L101">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="M101">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3669,21 +3630,21 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>136</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K102">
-        <v>0.1280788177339902</v>
+        <v>0.116945107398568</v>
       </c>
       <c r="L102">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="M102">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3695,21 +3656,21 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>177</v>
+        <v>370</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K103">
-        <v>0.1264916467780429</v>
+        <v>0.1143552311435523</v>
       </c>
       <c r="L103">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M103">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3721,21 +3682,21 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K104">
-        <v>0.1222222222222222</v>
+        <v>0.108974358974359</v>
       </c>
       <c r="L104">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="M104">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3747,21 +3708,21 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>237</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K105">
-        <v>0.121654501216545</v>
+        <v>0.1074074074074074</v>
       </c>
       <c r="L105">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="M105">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3773,47 +3734,47 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>361</v>
+        <v>241</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K106">
-        <v>0.1181434599156118</v>
+        <v>0.1050420168067227</v>
       </c>
       <c r="L106">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M106">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N106">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O106">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K107">
-        <v>0.1165644171779141</v>
+        <v>0.08469945355191257</v>
       </c>
       <c r="L107">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M107">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3825,47 +3786,47 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>144</v>
+        <v>335</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K108">
-        <v>0.1008064516129032</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="L108">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="M108">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="N108">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O108">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q108">
-        <v>223</v>
+        <v>990</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K109">
-        <v>0.09965635738831616</v>
+        <v>0.07258064516129033</v>
       </c>
       <c r="L109">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M109">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3877,73 +3838,73 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>262</v>
+        <v>230</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K110">
-        <v>0.09090909090909091</v>
+        <v>0.06886657101865136</v>
       </c>
       <c r="L110">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="M110">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="N110">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O110">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q110">
-        <v>150</v>
+        <v>649</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K111">
-        <v>0.08177905308464849</v>
+        <v>0.06617647058823529</v>
       </c>
       <c r="L111">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="M111">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="N111">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O111">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q111">
-        <v>640</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K112">
-        <v>0.08173076923076923</v>
+        <v>0.06273062730627306</v>
       </c>
       <c r="L112">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M112">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -3955,293 +3916,189 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>191</v>
+        <v>508</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K113">
-        <v>0.0765639589169001</v>
+        <v>0.05961538461538462</v>
       </c>
       <c r="L113">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="M113">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="N113">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O113">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>989</v>
+        <v>489</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K114">
-        <v>0.07377049180327869</v>
+        <v>0.04834605597964377</v>
       </c>
       <c r="L114">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M114">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N114">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O114">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q114">
-        <v>339</v>
+        <v>374</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K115">
-        <v>0.05914972273567468</v>
+        <v>0.04830917874396135</v>
       </c>
       <c r="L115">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M115">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N115">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O115">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>509</v>
+        <v>394</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K116">
-        <v>0.05811138014527845</v>
+        <v>0.04679376083188908</v>
       </c>
       <c r="L116">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M116">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="N116">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O116">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P116" t="b">
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>389</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K117">
-        <v>0.05514705882352941</v>
+        <v>0.04395604395604396</v>
       </c>
       <c r="L117">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M117">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N117">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q117">
-        <v>257</v>
+        <v>348</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K118">
-        <v>0.05387205387205387</v>
+        <v>0.04373177842565597</v>
       </c>
       <c r="L118">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M118">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N118">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O118">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="P118" t="b">
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>281</v>
+        <v>328</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K119">
-        <v>0.0532994923857868</v>
+        <v>0.0235910878112713</v>
       </c>
       <c r="L119">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M119">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N119">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="O119">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="P119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q119">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="120" spans="10:17">
-      <c r="J120" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K120">
-        <v>0.04807692307692308</v>
-      </c>
-      <c r="L120">
-        <v>25</v>
-      </c>
-      <c r="M120">
-        <v>27</v>
-      </c>
-      <c r="N120">
-        <v>0.93</v>
-      </c>
-      <c r="O120">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P120" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q120">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="121" spans="10:17">
-      <c r="J121" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K121">
-        <v>0.04770164787510842</v>
-      </c>
-      <c r="L121">
-        <v>55</v>
-      </c>
-      <c r="M121">
-        <v>59</v>
-      </c>
-      <c r="N121">
-        <v>0.93</v>
-      </c>
-      <c r="O121">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P121" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q121">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="122" spans="10:17">
-      <c r="J122" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K122">
-        <v>0.0440771349862259</v>
-      </c>
-      <c r="L122">
-        <v>16</v>
-      </c>
-      <c r="M122">
-        <v>18</v>
-      </c>
-      <c r="N122">
-        <v>0.89</v>
-      </c>
-      <c r="O122">
-        <v>0.11</v>
-      </c>
-      <c r="P122" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q122">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="123" spans="10:17">
-      <c r="J123" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K123">
-        <v>0.02091503267973856</v>
-      </c>
-      <c r="L123">
-        <v>16</v>
-      </c>
-      <c r="M123">
-        <v>18</v>
-      </c>
-      <c r="N123">
-        <v>0.89</v>
-      </c>
-      <c r="O123">
-        <v>0.11</v>
-      </c>
-      <c r="P123" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q123">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
